--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS4.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS4.xlsx
@@ -19,7 +19,241 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="146">
+  <si>
+    <t>Signal_Value_2</t>
+  </si>
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
   <si>
     <t>Signal_Value_80</t>
   </si>
@@ -141,6 +375,12 @@
     <t>Signal_Value_119</t>
   </si>
   <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -213,10 +453,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -577,15 +814,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:DQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:121">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -707,10 +944,250 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:121">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -719,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.08236026427428224</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -731,111 +1208,351 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03089334194911984</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.007559617897127125</v>
       </c>
       <c r="J2">
-        <v>0.009259897530914432</v>
+        <v>0.08257756973233402</v>
       </c>
       <c r="K2">
-        <v>0.02723220771583195</v>
+        <v>0.05054970447614731</v>
       </c>
       <c r="L2">
-        <v>0.0006764406070616436</v>
+        <v>0.1579452487752315</v>
       </c>
       <c r="M2">
-        <v>0.04960273963420436</v>
+        <v>0.01373619436700825</v>
       </c>
       <c r="N2">
-        <v>0.007842491765139809</v>
+        <v>0.002460048802814195</v>
       </c>
       <c r="O2">
-        <v>0.06742521274540161</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.03538505240096554</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0006984701015502118</v>
+        <v>0.09831781689975587</v>
       </c>
       <c r="R2">
-        <v>0.0008941418569915765</v>
+        <v>0.03541213251748939</v>
       </c>
       <c r="S2">
-        <v>0.01810431611587531</v>
+        <v>0.01566529893599603</v>
       </c>
       <c r="T2">
-        <v>0.08088060731768951</v>
+        <v>0.004074242197457207</v>
       </c>
       <c r="U2">
-        <v>0.04260350747670539</v>
+        <v>0.02883391761535051</v>
       </c>
       <c r="V2">
-        <v>0.001906577082529801</v>
+        <v>0.1650602202893975</v>
       </c>
       <c r="W2">
-        <v>0.05747403917731339</v>
+        <v>0.03052656152397766</v>
       </c>
       <c r="X2">
-        <v>0.07222722565582215</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.06789889379690986</v>
+        <v>0.009555933239637993</v>
       </c>
       <c r="Z2">
-        <v>0.02361870931892177</v>
+        <v>0.06611488146724441</v>
       </c>
       <c r="AA2">
-        <v>0.0003579766892659887</v>
+        <v>0.02144505296924376</v>
       </c>
       <c r="AB2">
-        <v>0.02689195228609498</v>
+        <v>0.004604579240048834</v>
       </c>
       <c r="AC2">
-        <v>0.07170526154233908</v>
+        <v>0.003725891333850356</v>
       </c>
       <c r="AD2">
-        <v>0.07907323268663237</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0634520931140885</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.03838028178530491</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.005896527130281938</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.002975130273929714</v>
+        <v>0.02725862885084052</v>
       </c>
       <c r="AI2">
-        <v>0.03178274648467683</v>
+        <v>0.06132285264564555</v>
       </c>
       <c r="AJ2">
-        <v>0.05020952312544323</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.02992218412741083</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.01080424836501134</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.008230429942024716</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.009852352503574325</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.006735529644093124</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:121">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -862,105 +1579,345 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.005674404506880033</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01633150930295232</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.008841490536018803</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.05359670024817924</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.02881786810550475</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.04433947594189945</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.05498278736068731</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.575569022277063E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001343893871929189</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.01571534842893919</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0799242197067967</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.06142324581264039</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0001225580906767753</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.05393978678049711</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.08120352774979572</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.06272126969666486</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.02227293248647256</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>4.556208732530374E-07</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01798084816156287</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.06143663979267485</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.08413566529747814</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.07001641936733866</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.04828236853953905</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.01472822567131676</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.01590593048959882</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0364320082000004</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.02668106189709059</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.01085831196989417</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.006765195673623358</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.008388185823248061</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.007061909179003913</v>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0.02068675479939395</v>
+      </c>
+      <c r="CI3">
+        <v>0.05873464335146183</v>
+      </c>
+      <c r="CJ3">
+        <v>0.03684722891663642</v>
+      </c>
+      <c r="CK3">
+        <v>0.005422225713136657</v>
+      </c>
+      <c r="CL3">
+        <v>0.001032135347767462</v>
+      </c>
+      <c r="CM3">
+        <v>0.05861823334827763</v>
+      </c>
+      <c r="CN3">
+        <v>0.03201668809303995</v>
+      </c>
+      <c r="CO3">
+        <v>0.0276417533741694</v>
+      </c>
+      <c r="CP3">
+        <v>0.04953523657693331</v>
+      </c>
+      <c r="CQ3">
+        <v>0.03189592000797448</v>
+      </c>
+      <c r="CR3">
+        <v>0.06041469780857967</v>
+      </c>
+      <c r="CS3">
+        <v>0.01220837381885558</v>
+      </c>
+      <c r="CT3">
+        <v>0.0003277473847176032</v>
+      </c>
+      <c r="CU3">
+        <v>0.006310557000434426</v>
+      </c>
+      <c r="CV3">
+        <v>0.08534354336601283</v>
+      </c>
+      <c r="CW3">
+        <v>0.09842873978210233</v>
+      </c>
+      <c r="CX3">
+        <v>0.001713523712298748</v>
+      </c>
+      <c r="CY3">
+        <v>0.07084352622930457</v>
+      </c>
+      <c r="CZ3">
+        <v>0.01578153320199299</v>
+      </c>
+      <c r="DA3">
+        <v>0.09245466685044254</v>
+      </c>
+      <c r="DB3">
+        <v>0.05041147894994153</v>
+      </c>
+      <c r="DC3">
+        <v>0.006061488056443378</v>
+      </c>
+      <c r="DD3">
+        <v>0.01672269730160569</v>
+      </c>
+      <c r="DE3">
+        <v>0.06766507153497853</v>
+      </c>
+      <c r="DF3">
+        <v>0.04688243085705909</v>
+      </c>
+      <c r="DG3">
+        <v>0.01273777816595948</v>
+      </c>
+      <c r="DH3">
+        <v>0.0006816336356331566</v>
+      </c>
+      <c r="DI3">
+        <v>0.001451001889493473</v>
+      </c>
+      <c r="DJ3">
+        <v>0.001155274380202501</v>
+      </c>
+      <c r="DK3">
+        <v>0.0004395008488555989</v>
+      </c>
+      <c r="DL3">
+        <v>0.00251171049703872</v>
+      </c>
+      <c r="DM3">
+        <v>0.02702220519925626</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:121">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -969,100 +1926,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.006032641262720542</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01963060064757306</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.00130548189087011</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.03864083090777373</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.009600294991806313</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0451763735297545</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03790486474591381</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0009452463830014476</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01289269214385491</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.07841587017181449</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.06026038670056279</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0004153532023687889</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.05945889857766792</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.07896100022245482</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.06180539340514941</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.02080533378324794</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.01959221340858371</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.06245338940298052</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.07902651203511592</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.07297521936894727</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.06070730484826774</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01664218260918248</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>6.23138861124754E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.021135825726601</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.04788821793514746</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.03616852668946291</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01568837855775504</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.011404870714139</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01394258221686008</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01006120003430973</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1082,10 +2039,250 @@
       <c r="AO4">
         <v>0</v>
       </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0.02377936106606114</v>
+      </c>
+      <c r="CI4">
+        <v>0.04507027643840802</v>
+      </c>
+      <c r="CJ4">
+        <v>0.05812186053609032</v>
+      </c>
+      <c r="CK4">
+        <v>5.409484822732112E-06</v>
+      </c>
+      <c r="CL4">
+        <v>0.003756550582858526</v>
+      </c>
+      <c r="CM4">
+        <v>0.06332933444217634</v>
+      </c>
+      <c r="CN4">
+        <v>0.01679295105673044</v>
+      </c>
+      <c r="CO4">
+        <v>0.03558715058629264</v>
+      </c>
+      <c r="CP4">
+        <v>0.05359699414201795</v>
+      </c>
+      <c r="CQ4">
+        <v>0.007333277112673029</v>
+      </c>
+      <c r="CR4">
+        <v>0.09711934140719641</v>
+      </c>
+      <c r="CS4">
+        <v>0.006331896502053021</v>
+      </c>
+      <c r="CT4">
+        <v>0.0001743896927198267</v>
+      </c>
+      <c r="CU4">
+        <v>0.001431330826954312</v>
+      </c>
+      <c r="CV4">
+        <v>0.07069509427765826</v>
+      </c>
+      <c r="CW4">
+        <v>0.1265891118818983</v>
+      </c>
+      <c r="CX4">
+        <v>0.0007799414895684616</v>
+      </c>
+      <c r="CY4">
+        <v>0.0424402065831313</v>
+      </c>
+      <c r="CZ4">
+        <v>0.03032788856690903</v>
+      </c>
+      <c r="DA4">
+        <v>0.09305454772151894</v>
+      </c>
+      <c r="DB4">
+        <v>0.04497149175545852</v>
+      </c>
+      <c r="DC4">
+        <v>0.005798836729685666</v>
+      </c>
+      <c r="DD4">
+        <v>0.02039808292350881</v>
+      </c>
+      <c r="DE4">
+        <v>0.07250180746436032</v>
+      </c>
+      <c r="DF4">
+        <v>0.04698730131875672</v>
+      </c>
+      <c r="DG4">
+        <v>0.007453453188213145</v>
+      </c>
+      <c r="DH4">
+        <v>0.0001350963042304424</v>
+      </c>
+      <c r="DI4">
+        <v>0.0008081470380164118</v>
+      </c>
+      <c r="DJ4">
+        <v>0.002195369225421942</v>
+      </c>
+      <c r="DK4">
+        <v>0.003445148789795545</v>
+      </c>
+      <c r="DL4">
+        <v>4.777706790216132E-05</v>
+      </c>
+      <c r="DM4">
+        <v>0.01894057379691143</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:121">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1112,105 +2309,345 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.002865616790447097</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.006934800996010008</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.01274265153486422</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0546828190943671</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.02959761090897853</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.04904933183965363</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.08121390393909797</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.002408659685782935</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.01300233883889874</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.02522342558701062</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.05934758028686413</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.04153424772603494</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0005600799211449267</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.04678357319712547</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.07301667322355544</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0570798508377749</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.02187565824089548</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0006137210998193198</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.009176184370429019</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.04628621947080405</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.07725437782922444</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0675546499187667</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.04580760635759164</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.01379894905448521</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>5.287958797190128E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.01324243334021823</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.03923565049556343</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.04281417604844557</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.02763694370361627</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.01486678042189986</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.01369375938003804</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.01004684627261997</v>
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0.03797960046342608</v>
+      </c>
+      <c r="CM5">
+        <v>0.03708041350889077</v>
+      </c>
+      <c r="CN5">
+        <v>0.1019898567214899</v>
+      </c>
+      <c r="CO5">
+        <v>0.00509671732107935</v>
+      </c>
+      <c r="CP5">
+        <v>0.0004681497365608461</v>
+      </c>
+      <c r="CQ5">
+        <v>0.02801053511104051</v>
+      </c>
+      <c r="CR5">
+        <v>0.02761141628956117</v>
+      </c>
+      <c r="CS5">
+        <v>0.003570412327463504</v>
+      </c>
+      <c r="CT5">
+        <v>0.07128512766229185</v>
+      </c>
+      <c r="CU5">
+        <v>0.0153547753482958</v>
+      </c>
+      <c r="CV5">
+        <v>0.1134798704936395</v>
+      </c>
+      <c r="CW5">
+        <v>0.003183993979936052</v>
+      </c>
+      <c r="CX5">
+        <v>4.064891266134806E-05</v>
+      </c>
+      <c r="CY5">
+        <v>0.0004877557566467512</v>
+      </c>
+      <c r="CZ5">
+        <v>0.05562658851110502</v>
+      </c>
+      <c r="DA5">
+        <v>0.1492541359183687</v>
+      </c>
+      <c r="DB5">
+        <v>0.0003991413309022984</v>
+      </c>
+      <c r="DC5">
+        <v>0.03622185252330051</v>
+      </c>
+      <c r="DD5">
+        <v>0.02029301572197873</v>
+      </c>
+      <c r="DE5">
+        <v>0.09646883118833409</v>
+      </c>
+      <c r="DF5">
+        <v>0.07233617613471552</v>
+      </c>
+      <c r="DG5">
+        <v>0.01607312647157338</v>
+      </c>
+      <c r="DH5">
+        <v>0.0023672830190231</v>
+      </c>
+      <c r="DI5">
+        <v>0.02734468418761198</v>
+      </c>
+      <c r="DJ5">
+        <v>0.02557488895069303</v>
+      </c>
+      <c r="DK5">
+        <v>0.02379975624882849</v>
+      </c>
+      <c r="DL5">
+        <v>3.479217404620789E-05</v>
+      </c>
+      <c r="DM5">
+        <v>0.0001878384766930266</v>
+      </c>
+      <c r="DN5">
+        <v>0.002007994649693539</v>
+      </c>
+      <c r="DO5">
+        <v>4.336215585686495E-05</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0.02632725870429222</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:121">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1237,100 +2674,340 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.004022931948789262</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.005200335115386281</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01755187387908899</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.04635354710510197</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.03536964790187459</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02576126203067268</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.08424042561329344</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01253366600171225</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.006198012856154901</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.009271196098756075</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.04039745669468035</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.1014230183028007</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.006665303732468841</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.03626215336691776</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.07883239180550196</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.06863508359105153</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.02824769159380423</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.002270039449032295</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.005379051565780741</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.04689334709930667</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.08901565149013825</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.07070477053126513</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.04568524246455728</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01979719818070662</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.002716033044768684</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.005262939097596254</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.02441503804830085</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.02810565631862984</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.020601378241787</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.01286743082772637</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.01038074492223937</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.008939481080108953</v>
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0.0351958421978868</v>
+      </c>
+      <c r="BG6">
+        <v>0.01838448418401391</v>
+      </c>
+      <c r="BH6">
+        <v>0.08069224852461647</v>
+      </c>
+      <c r="BI6">
+        <v>0.04284996528692776</v>
+      </c>
+      <c r="BJ6">
+        <v>0.0004065408950287916</v>
+      </c>
+      <c r="BK6">
+        <v>0.0008427142332042567</v>
+      </c>
+      <c r="BL6">
+        <v>0.05546254961400935</v>
+      </c>
+      <c r="BM6">
+        <v>0.001127718258130775</v>
+      </c>
+      <c r="BN6">
+        <v>0.08263122305748283</v>
+      </c>
+      <c r="BO6">
+        <v>0.0121397213972133</v>
+      </c>
+      <c r="BP6">
+        <v>0.07244981500811826</v>
+      </c>
+      <c r="BQ6">
+        <v>0.001143583039234475</v>
+      </c>
+      <c r="BR6">
+        <v>0.006827422709983668</v>
+      </c>
+      <c r="BS6">
+        <v>0.03878794977831816</v>
+      </c>
+      <c r="BT6">
+        <v>0.001182802460263668</v>
+      </c>
+      <c r="BU6">
+        <v>0.02593976026278364</v>
+      </c>
+      <c r="BV6">
+        <v>0.04372553998335081</v>
+      </c>
+      <c r="BW6">
+        <v>0.0002489643480702802</v>
+      </c>
+      <c r="BX6">
+        <v>0.04577157721733482</v>
+      </c>
+      <c r="BY6">
+        <v>0.147648975123311</v>
+      </c>
+      <c r="BZ6">
+        <v>0.09728480824751733</v>
+      </c>
+      <c r="CA6">
+        <v>0.0003777717138370231</v>
+      </c>
+      <c r="CB6">
+        <v>9.057194085809813E-05</v>
+      </c>
+      <c r="CC6">
+        <v>0.003805874738127398</v>
+      </c>
+      <c r="CD6">
+        <v>0.03267114797796709</v>
+      </c>
+      <c r="CE6">
+        <v>0.1159359483519315</v>
+      </c>
+      <c r="CF6">
+        <v>0.004053562969939539</v>
+      </c>
+      <c r="CG6">
+        <v>0.009981313629620184</v>
+      </c>
+      <c r="CH6">
+        <v>0.008630994248412372</v>
+      </c>
+      <c r="CI6">
+        <v>0.0001180108440984555</v>
+      </c>
+      <c r="CJ6">
+        <v>0.01358347094690522</v>
+      </c>
+      <c r="CK6">
+        <v>7.126811502823138E-06</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1340,15 +3017,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:DQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:121">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1470,10 +3147,250 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:121">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1482,123 +3399,363 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.08236026427428224</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.08236026427428224</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.08236026427428224</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.08236026427428224</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1132536062234021</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1208132241205292</v>
       </c>
       <c r="J2">
-        <v>0.009259897530914432</v>
+        <v>0.2033907938528632</v>
       </c>
       <c r="K2">
-        <v>0.03649210524674638</v>
+        <v>0.2539404983290106</v>
       </c>
       <c r="L2">
-        <v>0.03716854585380802</v>
+        <v>0.4118857471042421</v>
       </c>
       <c r="M2">
-        <v>0.08677128548801238</v>
+        <v>0.4256219414712503</v>
       </c>
       <c r="N2">
-        <v>0.09461377725315219</v>
+        <v>0.4280819902740645</v>
       </c>
       <c r="O2">
-        <v>0.1620389899985538</v>
+        <v>0.4280819902740645</v>
       </c>
       <c r="P2">
-        <v>0.1974240423995194</v>
+        <v>0.4280819902740645</v>
       </c>
       <c r="Q2">
-        <v>0.1981225125010696</v>
+        <v>0.5263998071738204</v>
       </c>
       <c r="R2">
-        <v>0.1990166543580612</v>
+        <v>0.5618119396913098</v>
       </c>
       <c r="S2">
-        <v>0.2171209704739365</v>
+        <v>0.5774772386273058</v>
       </c>
       <c r="T2">
-        <v>0.2980015777916259</v>
+        <v>0.581551480824763</v>
       </c>
       <c r="U2">
-        <v>0.3406050852683313</v>
+        <v>0.6103853984401135</v>
       </c>
       <c r="V2">
-        <v>0.3425116623508611</v>
+        <v>0.7754456187295111</v>
       </c>
       <c r="W2">
-        <v>0.3999857015281745</v>
+        <v>0.8059721802534888</v>
       </c>
       <c r="X2">
-        <v>0.4722129271839967</v>
+        <v>0.8059721802534888</v>
       </c>
       <c r="Y2">
-        <v>0.5401118209809065</v>
+        <v>0.8155281134931268</v>
       </c>
       <c r="Z2">
-        <v>0.5637305302998282</v>
+        <v>0.8816429949603712</v>
       </c>
       <c r="AA2">
-        <v>0.5640885069890942</v>
+        <v>0.9030880479296151</v>
       </c>
       <c r="AB2">
-        <v>0.5909804592751892</v>
+        <v>0.9076926271696639</v>
       </c>
       <c r="AC2">
-        <v>0.6626857208175283</v>
+        <v>0.9114185185035143</v>
       </c>
       <c r="AD2">
-        <v>0.7417589535041607</v>
+        <v>0.9114185185035143</v>
       </c>
       <c r="AE2">
-        <v>0.8052110466182492</v>
+        <v>0.9114185185035143</v>
       </c>
       <c r="AF2">
-        <v>0.8435913284035541</v>
+        <v>0.9114185185035143</v>
       </c>
       <c r="AG2">
-        <v>0.8494878555338361</v>
+        <v>0.9114185185035143</v>
       </c>
       <c r="AH2">
-        <v>0.8524629858077658</v>
+        <v>0.9386771473543548</v>
       </c>
       <c r="AI2">
-        <v>0.8842457322924426</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9344552554178859</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9643774395452968</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9751816879103081</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9834121178523328</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.9932644703559071</v>
+        <v>1</v>
       </c>
       <c r="AO2">
         <v>1</v>
       </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DP2">
+        <v>1</v>
+      </c>
+      <c r="DQ2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:121">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1625,105 +3782,345 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.005674404506880033</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02200591380983236</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.03084740434585116</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0844441045940304</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1132619726995351</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1576014486414346</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.2125842360021219</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.2126599916923447</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.2140038855642739</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2297192339932131</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.3096434537000098</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.3710666995126501</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.3711892576033269</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.425129044383824</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.5063325721336198</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.5690538418302846</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.5913267743167572</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.5913272299376304</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.6093080780991933</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.6707447178918682</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.7548803831893464</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.824896802556685</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.873179171096224</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8879073967675408</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.8879073967675408</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.9038133272571397</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.9402453354571401</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.9669263973542307</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.9777847093241249</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.9845499049977482</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.9929380908209963</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0.02068675479939395</v>
+      </c>
+      <c r="CI3">
+        <v>0.07942139815085578</v>
+      </c>
+      <c r="CJ3">
+        <v>0.1162686270674922</v>
+      </c>
+      <c r="CK3">
+        <v>0.1216908527806289</v>
+      </c>
+      <c r="CL3">
+        <v>0.1227229881283963</v>
+      </c>
+      <c r="CM3">
+        <v>0.1813412214766739</v>
+      </c>
+      <c r="CN3">
+        <v>0.2133579095697139</v>
+      </c>
+      <c r="CO3">
+        <v>0.2409996629438833</v>
+      </c>
+      <c r="CP3">
+        <v>0.2905348995208166</v>
+      </c>
+      <c r="CQ3">
+        <v>0.3224308195287911</v>
+      </c>
+      <c r="CR3">
+        <v>0.3828455173373708</v>
+      </c>
+      <c r="CS3">
+        <v>0.3950538911562264</v>
+      </c>
+      <c r="CT3">
+        <v>0.3953816385409439</v>
+      </c>
+      <c r="CU3">
+        <v>0.4016921955413784</v>
+      </c>
+      <c r="CV3">
+        <v>0.4870357389073912</v>
+      </c>
+      <c r="CW3">
+        <v>0.5854644786894935</v>
+      </c>
+      <c r="CX3">
+        <v>0.5871780024017922</v>
+      </c>
+      <c r="CY3">
+        <v>0.6580215286310968</v>
+      </c>
+      <c r="CZ3">
+        <v>0.6738030618330897</v>
+      </c>
+      <c r="DA3">
+        <v>0.7662577286835323</v>
+      </c>
+      <c r="DB3">
+        <v>0.8166692076334738</v>
+      </c>
+      <c r="DC3">
+        <v>0.8227306956899172</v>
+      </c>
+      <c r="DD3">
+        <v>0.8394533929915229</v>
+      </c>
+      <c r="DE3">
+        <v>0.9071184645265014</v>
+      </c>
+      <c r="DF3">
+        <v>0.9540008953835605</v>
+      </c>
+      <c r="DG3">
+        <v>0.9667386735495199</v>
+      </c>
+      <c r="DH3">
+        <v>0.967420307185153</v>
+      </c>
+      <c r="DI3">
+        <v>0.9688713090746465</v>
+      </c>
+      <c r="DJ3">
+        <v>0.9700265834548489</v>
+      </c>
+      <c r="DK3">
+        <v>0.9704660843037045</v>
+      </c>
+      <c r="DL3">
+        <v>0.9729777948007432</v>
+      </c>
+      <c r="DM3">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DN3">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DO3">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DP3">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DQ3">
+        <v>0.9999999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:121">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1732,123 +4129,363 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.006032641262720542</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0256632419102936</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.02696872380116372</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.06560955470893744</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07520984970074375</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1203862232304982</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1582910879764121</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1582910879764121</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1592363343594135</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1721290265032684</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2505448966750829</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3108052833756457</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.3112206365780145</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.3706795351556824</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.4496405353781373</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.5114459287832867</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.5322512625665345</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.5322512625665345</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.5518434759751183</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.6142968653780988</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.6933233774132147</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.7662985967821619</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.8270059016304296</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.8436480842396121</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.8437103981257246</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.8648462238523256</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.912734441787473</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.9489029684769359</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.964591347034691</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.9759962177488299</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.98993879996569</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.9999999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0.02377936106606114</v>
+      </c>
+      <c r="CI4">
+        <v>0.06884963750446915</v>
+      </c>
+      <c r="CJ4">
+        <v>0.1269714980405595</v>
+      </c>
+      <c r="CK4">
+        <v>0.1269769075253822</v>
+      </c>
+      <c r="CL4">
+        <v>0.1307334581082407</v>
+      </c>
+      <c r="CM4">
+        <v>0.1940627925504171</v>
+      </c>
+      <c r="CN4">
+        <v>0.2108557436071475</v>
+      </c>
+      <c r="CO4">
+        <v>0.2464428941934401</v>
+      </c>
+      <c r="CP4">
+        <v>0.3000398883354581</v>
+      </c>
+      <c r="CQ4">
+        <v>0.3073731654481311</v>
+      </c>
+      <c r="CR4">
+        <v>0.4044925068553275</v>
+      </c>
+      <c r="CS4">
+        <v>0.4108244033573805</v>
+      </c>
+      <c r="CT4">
+        <v>0.4109987930501003</v>
+      </c>
+      <c r="CU4">
+        <v>0.4124301238770546</v>
+      </c>
+      <c r="CV4">
+        <v>0.4831252181547129</v>
+      </c>
+      <c r="CW4">
+        <v>0.6097143300366111</v>
+      </c>
+      <c r="CX4">
+        <v>0.6104942715261796</v>
+      </c>
+      <c r="CY4">
+        <v>0.6529344781093109</v>
+      </c>
+      <c r="CZ4">
+        <v>0.68326236667622</v>
+      </c>
+      <c r="DA4">
+        <v>0.7763169143977389</v>
+      </c>
+      <c r="DB4">
+        <v>0.8212884061531974</v>
+      </c>
+      <c r="DC4">
+        <v>0.827087242882883</v>
+      </c>
+      <c r="DD4">
+        <v>0.8474853258063919</v>
+      </c>
+      <c r="DE4">
+        <v>0.9199871332707522</v>
+      </c>
+      <c r="DF4">
+        <v>0.9669744345895089</v>
+      </c>
+      <c r="DG4">
+        <v>0.974427887777722</v>
+      </c>
+      <c r="DH4">
+        <v>0.9745629840819525</v>
+      </c>
+      <c r="DI4">
+        <v>0.975371131119969</v>
+      </c>
+      <c r="DJ4">
+        <v>0.9775665003453909</v>
+      </c>
+      <c r="DK4">
+        <v>0.9810116491351865</v>
+      </c>
+      <c r="DL4">
+        <v>0.9810594262030886</v>
+      </c>
+      <c r="DM4">
+        <v>1</v>
+      </c>
+      <c r="DN4">
+        <v>1</v>
+      </c>
+      <c r="DO4">
+        <v>1</v>
+      </c>
+      <c r="DP4">
+        <v>1</v>
+      </c>
+      <c r="DQ4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:121">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1875,105 +4512,345 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.002865616790447097</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.009800417786457105</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.02254306932132132</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.07722588841568842</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1068234993246669</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1558728311643206</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.2370867351034185</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.2394953947892015</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.2524977336281002</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.2777211592151109</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.337068739501975</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.3786029872280099</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.3791630671491549</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.4259466403462803</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.4989633135698358</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.5560431644076107</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.5779188226485061</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.5785325437483254</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.5877087281187544</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.6339949475895584</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.7112493254187828</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.7788039753375495</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.8246115816951411</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8384105307496263</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.8384634103375983</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.8517058436778165</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.89094149417338</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.9337556702218256</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.9613926139254418</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.9762593943473417</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.9899531537273797</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0.03797960046342608</v>
+      </c>
+      <c r="CM5">
+        <v>0.07506001397231685</v>
+      </c>
+      <c r="CN5">
+        <v>0.1770498706938067</v>
+      </c>
+      <c r="CO5">
+        <v>0.1821465880148861</v>
+      </c>
+      <c r="CP5">
+        <v>0.1826147377514469</v>
+      </c>
+      <c r="CQ5">
+        <v>0.2106252728624874</v>
+      </c>
+      <c r="CR5">
+        <v>0.2382366891520486</v>
+      </c>
+      <c r="CS5">
+        <v>0.2418071014795121</v>
+      </c>
+      <c r="CT5">
+        <v>0.313092229141804</v>
+      </c>
+      <c r="CU5">
+        <v>0.3284470044900998</v>
+      </c>
+      <c r="CV5">
+        <v>0.4419268749837393</v>
+      </c>
+      <c r="CW5">
+        <v>0.4451108689636754</v>
+      </c>
+      <c r="CX5">
+        <v>0.4451515178763367</v>
+      </c>
+      <c r="CY5">
+        <v>0.4456392736329834</v>
+      </c>
+      <c r="CZ5">
+        <v>0.5012658621440884</v>
+      </c>
+      <c r="DA5">
+        <v>0.6505199980624571</v>
+      </c>
+      <c r="DB5">
+        <v>0.6509191393933594</v>
+      </c>
+      <c r="DC5">
+        <v>0.6871409919166599</v>
+      </c>
+      <c r="DD5">
+        <v>0.7074340076386386</v>
+      </c>
+      <c r="DE5">
+        <v>0.8039028388269727</v>
+      </c>
+      <c r="DF5">
+        <v>0.8762390149616882</v>
+      </c>
+      <c r="DG5">
+        <v>0.8923121414332615</v>
+      </c>
+      <c r="DH5">
+        <v>0.8946794244522847</v>
+      </c>
+      <c r="DI5">
+        <v>0.9220241086398966</v>
+      </c>
+      <c r="DJ5">
+        <v>0.9475989975905896</v>
+      </c>
+      <c r="DK5">
+        <v>0.9713987538394181</v>
+      </c>
+      <c r="DL5">
+        <v>0.9714335460134643</v>
+      </c>
+      <c r="DM5">
+        <v>0.9716213844901573</v>
+      </c>
+      <c r="DN5">
+        <v>0.9736293791398509</v>
+      </c>
+      <c r="DO5">
+        <v>0.9736727412957078</v>
+      </c>
+      <c r="DP5">
+        <v>0.9736727412957078</v>
+      </c>
+      <c r="DQ5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:121">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2000,99 +4877,339 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.004022931948789262</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.009223267064175544</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.02677514094326453</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0731286880483665</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1084983359502411</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1342595979809138</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2185000235942072</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2310336895959195</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.2372317024520744</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.2465028985508304</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.2869003552455108</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.3883233735483115</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.3949886772807803</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.431250830647698</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.5100832224532</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.5787183060442516</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.6069659976380558</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.6092360370870881</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.6146150886528688</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.6615084357521755</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.7505240872423138</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.8212288577735789</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.8669141002381362</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.8867112984188428</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.8894273314636114</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.8946902705612076</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.9191053086095085</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.9472109649281383</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.9678123431699253</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.9806797739976516</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.991060518919891</v>
+        <v>0</v>
       </c>
       <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0.0351958421978868</v>
+      </c>
+      <c r="BG6">
+        <v>0.05358032638190072</v>
+      </c>
+      <c r="BH6">
+        <v>0.1342725749065172</v>
+      </c>
+      <c r="BI6">
+        <v>0.1771225401934449</v>
+      </c>
+      <c r="BJ6">
+        <v>0.1775290810884737</v>
+      </c>
+      <c r="BK6">
+        <v>0.178371795321678</v>
+      </c>
+      <c r="BL6">
+        <v>0.2338343449356873</v>
+      </c>
+      <c r="BM6">
+        <v>0.2349620631938181</v>
+      </c>
+      <c r="BN6">
+        <v>0.3175932862513009</v>
+      </c>
+      <c r="BO6">
+        <v>0.3297330076485142</v>
+      </c>
+      <c r="BP6">
+        <v>0.4021828226566325</v>
+      </c>
+      <c r="BQ6">
+        <v>0.4033264056958669</v>
+      </c>
+      <c r="BR6">
+        <v>0.4101538284058506</v>
+      </c>
+      <c r="BS6">
+        <v>0.4489417781841687</v>
+      </c>
+      <c r="BT6">
+        <v>0.4501245806444324</v>
+      </c>
+      <c r="BU6">
+        <v>0.4760643409072161</v>
+      </c>
+      <c r="BV6">
+        <v>0.5197898808905669</v>
+      </c>
+      <c r="BW6">
+        <v>0.5200388452386372</v>
+      </c>
+      <c r="BX6">
+        <v>0.565810422455972</v>
+      </c>
+      <c r="BY6">
+        <v>0.713459397579283</v>
+      </c>
+      <c r="BZ6">
+        <v>0.8107442058268003</v>
+      </c>
+      <c r="CA6">
+        <v>0.8111219775406373</v>
+      </c>
+      <c r="CB6">
+        <v>0.8112125494814955</v>
+      </c>
+      <c r="CC6">
+        <v>0.8150184242196229</v>
+      </c>
+      <c r="CD6">
+        <v>0.84768957219759</v>
+      </c>
+      <c r="CE6">
+        <v>0.9636255205495214</v>
+      </c>
+      <c r="CF6">
+        <v>0.967679083519461</v>
+      </c>
+      <c r="CG6">
+        <v>0.9776603971490812</v>
+      </c>
+      <c r="CH6">
+        <v>0.9862913913974936</v>
+      </c>
+      <c r="CI6">
+        <v>0.986409402241592</v>
+      </c>
+      <c r="CJ6">
+        <v>0.9999928731884973</v>
+      </c>
+      <c r="CK6">
+        <v>1</v>
+      </c>
+      <c r="CL6">
+        <v>1</v>
+      </c>
+      <c r="CM6">
+        <v>1</v>
+      </c>
+      <c r="CN6">
+        <v>1</v>
+      </c>
+      <c r="CO6">
+        <v>1</v>
+      </c>
+      <c r="CP6">
+        <v>1</v>
+      </c>
+      <c r="CQ6">
+        <v>1</v>
+      </c>
+      <c r="CR6">
+        <v>1</v>
+      </c>
+      <c r="CS6">
+        <v>1</v>
+      </c>
+      <c r="CT6">
+        <v>1</v>
+      </c>
+      <c r="CU6">
+        <v>1</v>
+      </c>
+      <c r="CV6">
+        <v>1</v>
+      </c>
+      <c r="CW6">
+        <v>1</v>
+      </c>
+      <c r="CX6">
+        <v>1</v>
+      </c>
+      <c r="CY6">
+        <v>1</v>
+      </c>
+      <c r="CZ6">
+        <v>1</v>
+      </c>
+      <c r="DA6">
+        <v>1</v>
+      </c>
+      <c r="DB6">
+        <v>1</v>
+      </c>
+      <c r="DC6">
+        <v>1</v>
+      </c>
+      <c r="DD6">
+        <v>1</v>
+      </c>
+      <c r="DE6">
+        <v>1</v>
+      </c>
+      <c r="DF6">
+        <v>1</v>
+      </c>
+      <c r="DG6">
+        <v>1</v>
+      </c>
+      <c r="DH6">
+        <v>1</v>
+      </c>
+      <c r="DI6">
+        <v>1</v>
+      </c>
+      <c r="DJ6">
+        <v>1</v>
+      </c>
+      <c r="DK6">
+        <v>1</v>
+      </c>
+      <c r="DL6">
+        <v>1</v>
+      </c>
+      <c r="DM6">
+        <v>1</v>
+      </c>
+      <c r="DN6">
+        <v>1</v>
+      </c>
+      <c r="DO6">
+        <v>1</v>
+      </c>
+      <c r="DP6">
+        <v>1</v>
+      </c>
+      <c r="DQ6">
         <v>1</v>
       </c>
     </row>
@@ -2111,122 +5228,119 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>0.03649210524674638</v>
+        <v>0.08236026427428224</v>
       </c>
       <c r="F2">
-        <v>0.5401118209809065</v>
+        <v>0.5263998071738204</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L2">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.02200591380983236</v>
+        <v>0.1162686270674922</v>
       </c>
       <c r="F3">
-        <v>0.5063325721336198</v>
+        <v>0.5854644786894935</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2235,178 +5349,166 @@
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L3">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.0256632419102936</v>
+        <v>0.1269714980405595</v>
       </c>
       <c r="F4">
-        <v>0.5114459287832867</v>
+        <v>0.6097143300366111</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L4">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>0.02254306932132132</v>
+        <v>0.1770498706938067</v>
       </c>
       <c r="F5">
-        <v>0.5560431644076107</v>
+        <v>0.5012658621440884</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L5">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E6">
-        <v>0.02677514094326453</v>
+        <v>0.1342725749065172</v>
       </c>
       <c r="F6">
-        <v>0.5100832224532</v>
+        <v>0.5197898808905669</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L6">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2424,302 +5526,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>0.03649210524674638</v>
+        <v>0.08236026427428224</v>
       </c>
       <c r="F2">
-        <v>0.7417589535041607</v>
+        <v>0.7754456187295111</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L2">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>0.02200591380983236</v>
+        <v>0.1162686270674922</v>
       </c>
       <c r="F3">
-        <v>0.7548803831893464</v>
+        <v>0.7662577286835323</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L3">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>0.0256632419102936</v>
+        <v>0.1269714980405595</v>
       </c>
       <c r="F4">
-        <v>0.7662985967821619</v>
+        <v>0.7763169143977389</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L4">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.02254306932132132</v>
+        <v>0.1770498706938067</v>
       </c>
       <c r="F5">
-        <v>0.7112493254187828</v>
+        <v>0.7074340076386386</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L5">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E6">
-        <v>0.02677514094326453</v>
+        <v>0.1342725749065172</v>
       </c>
       <c r="F6">
-        <v>0.7505240872423138</v>
+        <v>0.713459397579283</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L6">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2737,302 +5824,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>0.03649210524674638</v>
+        <v>0.08236026427428224</v>
       </c>
       <c r="F2">
-        <v>0.8052110466182492</v>
+        <v>0.8059721802534888</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L2">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>0.02200591380983236</v>
+        <v>0.1162686270674922</v>
       </c>
       <c r="F3">
-        <v>0.824896802556685</v>
+        <v>0.8166692076334738</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L3">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>0.0256632419102936</v>
+        <v>0.1269714980405595</v>
       </c>
       <c r="F4">
-        <v>0.8270059016304296</v>
+        <v>0.8212884061531974</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L4">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.02254306932132132</v>
+        <v>0.1770498706938067</v>
       </c>
       <c r="F5">
-        <v>0.8246115816951411</v>
+        <v>0.8039028388269727</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L5">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E6">
-        <v>0.02677514094326453</v>
+        <v>0.1342725749065172</v>
       </c>
       <c r="F6">
-        <v>0.8212288577735789</v>
+        <v>0.8107442058268003</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L6">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3050,302 +6122,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>0.03649210524674638</v>
+        <v>0.08236026427428224</v>
       </c>
       <c r="F2">
-        <v>0.9344552554178859</v>
+        <v>0.9030880479296151</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L2">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>0.02200591380983236</v>
+        <v>0.1162686270674922</v>
       </c>
       <c r="F3">
-        <v>0.9038133272571397</v>
+        <v>0.9071184645265014</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L3">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>0.0256632419102936</v>
+        <v>0.1269714980405595</v>
       </c>
       <c r="F4">
-        <v>0.912734441787473</v>
+        <v>0.9199871332707522</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L4">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="E5">
-        <v>0.02254306932132132</v>
+        <v>0.1770498706938067</v>
       </c>
       <c r="F5">
-        <v>0.9337556702218256</v>
+        <v>0.9220241086398966</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L5">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E6">
-        <v>0.02677514094326453</v>
+        <v>0.1342725749065172</v>
       </c>
       <c r="F6">
-        <v>0.9191053086095085</v>
+        <v>0.9636255205495214</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="L6">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
